--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alemo\OneDrive\Documents\IoT P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnoldmanzi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44914D91-1014-4C0F-8C87-CA6BC1BFE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609225D-9BF0-B14C-82AC-A55D0FA15809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94BCC309-FC58-4D5C-B6BA-4CBF5EBCE758}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{94BCC309-FC58-4D5C-B6BA-4CBF5EBCE758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -393,15 +391,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DE0633-99B9-4C98-BFAE-854CF9123A28}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,60 +411,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>47.6015625</v>
+        <v>47.601369400000003</v>
       </c>
       <c r="B2">
-        <v>-122.32364920000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-122.3232079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>47.6015959</v>
+        <v>47.6013728</v>
       </c>
       <c r="B3">
-        <v>-122.32276880000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-122.32346510000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>47.601360999999997</v>
+        <v>47.601076200000001</v>
       </c>
       <c r="B4">
-        <v>-122.32359700000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-122.3227959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>47.601283000000002</v>
+        <v>47.6009308</v>
       </c>
       <c r="B5">
-        <v>-122.323212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-122.32296119999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>47.601433999999998</v>
+        <v>47.600820499999998</v>
       </c>
       <c r="B6">
-        <v>-122.323187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-122.3225431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>47.601339000000003</v>
+        <v>47.600453999999999</v>
       </c>
       <c r="B7">
-        <v>-122.322761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-122.3219902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>47.601045999999997</v>
+        <v>47.600075099999998</v>
       </c>
       <c r="B8">
-        <v>-122.323194</v>
+        <v>-122.3218555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>47.599954680000003</v>
+      </c>
+      <c r="B9">
+        <v>-122.3212278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>47.5993377</v>
+      </c>
+      <c r="B10">
+        <v>-122.3211692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>47.599806800000003</v>
+      </c>
+      <c r="B11">
+        <v>-122.32167579999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>47.600333999999997</v>
+      </c>
+      <c r="B12">
+        <v>-122.32222367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>47.600707499999999</v>
+      </c>
+      <c r="B13">
+        <v>-122.3227232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>47.601587799999997</v>
+      </c>
+      <c r="B14">
+        <v>-122.3224958</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnoldmanzi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609225D-9BF0-B14C-82AC-A55D0FA15809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27920568-D87A-CE42-8AC0-F7543B11F350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{94BCC309-FC58-4D5C-B6BA-4CBF5EBCE758}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DE0633-99B9-4C98-BFAE-854CF9123A28}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,9 +509,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>47.601405800000002</v>
+      </c>
+      <c r="B14">
+        <v>-122.3235825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>47.601587799999997</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-122.3224958</v>
       </c>
     </row>
